--- a/data/tidy/Cumulative_Data.xlsx
+++ b/data/tidy/Cumulative_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\NARS Dropbox\Projects\Water-Accessibility\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90966909-436E-435E-BDFD-12AB46E496E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7399B1-81ED-4FB2-975A-08519FBAEC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator Data" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="338">
   <si>
     <t>Country</t>
   </si>
@@ -1049,6 +1049,9 @@
   <si>
     <t>pcar</t>
   </si>
+  <si>
+    <t>cart</t>
+  </si>
 </sst>
 </file>
 
@@ -1523,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48221CD-90DF-4398-AF9E-7614C0A97F8C}">
   <dimension ref="A1:BX1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1747,7 @@
         <v>333</v>
       </c>
       <c r="BO1" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BP1" s="14" t="s">
         <v>335</v>
@@ -59051,8 +59054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19143F9B-C7B8-4FB9-AB7C-46D53AD99B56}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59250,7 +59253,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">

--- a/data/tidy/Cumulative_Data.xlsx
+++ b/data/tidy/Cumulative_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7399B1-81ED-4FB2-975A-08519FBAEC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB7EA25-D461-4B87-B2B6-EC9114651481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator Data" sheetId="5" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,12 +1129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1205,10 +1199,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1526,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48221CD-90DF-4398-AF9E-7614C0A97F8C}">
   <dimension ref="A1:BX1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO5" sqref="BO5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59054,8 +59044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19143F9B-C7B8-4FB9-AB7C-46D53AD99B56}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59065,10 +59055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>318</v>
       </c>
     </row>
@@ -59081,10 +59071,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>319</v>
       </c>
     </row>
@@ -59129,34 +59119,34 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>305</v>
       </c>
     </row>
@@ -59185,42 +59175,42 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="12" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="12" t="s">
         <v>330</v>
       </c>
     </row>
@@ -59281,10 +59271,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>303</v>
       </c>
     </row>
@@ -59324,58 +59314,58 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>196</v>
       </c>
     </row>

--- a/data/tidy/Cumulative_Data.xlsx
+++ b/data/tidy/Cumulative_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB7EA25-D461-4B87-B2B6-EC9114651481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B203089-5855-4EA8-9D99-21E0D328FEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator Data" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="28-variables" sheetId="9" r:id="rId4"/>
     <sheet name="Explnation of the Variable" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48221CD-90DF-4398-AF9E-7614C0A97F8C}">
   <dimension ref="A1:BX1048576"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ7" sqref="BQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59044,7 +59044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19143F9B-C7B8-4FB9-AB7C-46D53AD99B56}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/data/tidy/Cumulative_Data.xlsx
+++ b/data/tidy/Cumulative_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B203089-5855-4EA8-9D99-21E0D328FEC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125628A-CED5-408D-B719-52522F43935F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="3744" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator Data" sheetId="5" r:id="rId1"/>
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48221CD-90DF-4398-AF9E-7614C0A97F8C}">
   <dimension ref="A1:BX1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BQ7" sqref="BQ7"/>
     </sheetView>
   </sheetViews>
@@ -59044,8 +59044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19143F9B-C7B8-4FB9-AB7C-46D53AD99B56}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59118,116 +59118,116 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">

--- a/data/tidy/Cumulative_Data.xlsx
+++ b/data/tidy/Cumulative_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\data\tidy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8125628A-CED5-408D-B719-52522F43935F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAB9C11-9852-40F6-8355-B3026373DEE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3744" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator Data" sheetId="5" r:id="rId1"/>
@@ -59044,8 +59044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19143F9B-C7B8-4FB9-AB7C-46D53AD99B56}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59055,10 +59055,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>318</v>
       </c>
     </row>
@@ -59119,10 +59119,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="17" t="s">
         <v>305</v>
       </c>
     </row>
@@ -59207,26 +59207,26 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="17" t="s">
         <v>329</v>
       </c>
     </row>
